--- a/Framework/src/test/resources/RestaurantDatas.xlsx
+++ b/Framework/src/test/resources/RestaurantDatas.xlsx
@@ -3,14 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\git\Framework\Framework\src\test\resources\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E85975C3-7857-443C-935B-9B2864FEE408}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{0F941233-6D46-40E0-84F6-0BA1C0999DC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="624" yWindow="132" windowWidth="17280" windowHeight="8880" activeTab="3" xr2:uid="{69B5D11C-15B9-43F1-9491-14C77CC8BDC9}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="17496" windowHeight="12384" firstSheet="2" activeTab="5" xr2:uid="{69B5D11C-15B9-43F1-9491-14C77CC8BDC9}"/>
   </bookViews>
   <sheets>
     <sheet name="Waiter" sheetId="1" r:id="rId1"/>
@@ -23,6 +18,7 @@
     <sheet name="ExpenseCategory" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1:N23"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -883,7 +879,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03F2D0E0-C770-4566-B96C-6F74DFED594E}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -936,7 +932,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -987,7 +983,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6F82E66-66C0-4BF1-9322-08A3B27C79F2}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
